--- a/src/main/resources/Data.xlsx
+++ b/src/main/resources/Data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AllTC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>fname</t>
   </si>
@@ -32,6 +33,27 @@
   </si>
   <si>
     <t>driver</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>TC_AddEmp_001</t>
+  </si>
+  <si>
+    <t>Add Employee</t>
+  </si>
+  <si>
+    <t>TC_EditEmp_002</t>
   </si>
 </sst>
 </file>
@@ -375,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -408,4 +430,65 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/Data.xlsx
+++ b/src/main/resources/Data.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/resources/Data.xlsx
+++ b/src/main/resources/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>fname</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>TC_EditEmp_002</t>
+  </si>
+  <si>
+    <t>sudhakar</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -395,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -425,6 +431,14 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -436,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
